--- a/02招新及校赛/校赛报名汇总表.xlsx
+++ b/02招新及校赛/校赛报名汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13680" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="队伍数" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="218">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -877,6 +877,24 @@
   </si>
   <si>
     <t>2856427359@qq.com</t>
+  </si>
+  <si>
+    <t>碱基互补配队</t>
+  </si>
+  <si>
+    <t>张艺鹏</t>
+  </si>
+  <si>
+    <t>21级自动化一班</t>
+  </si>
+  <si>
+    <t>2106777958@qq.com</t>
+  </si>
+  <si>
+    <t>严超</t>
+  </si>
+  <si>
+    <t>3057543683@qq.com</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1685,6 +1703,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1707,6 +1728,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2269,8 +2293,8 @@
   <sheetPr/>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2281,332 +2305,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="23">
+      <c r="A4" s="25">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="23">
+      <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25">
-        <v>3</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="C7" s="27">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="23">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="23">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="27">
         <v>6</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
+      <c r="C11" s="27">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2620,12 +2644,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2655,7 +2679,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2682,7 +2706,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2723,7 +2747,7 @@
       <c r="J3" s="6">
         <v>2200951186</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2752,7 +2776,7 @@
       <c r="J4" s="6">
         <v>3086772347</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
@@ -2779,7 +2803,7 @@
       <c r="J5" s="6">
         <v>1507066188</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2812,7 +2836,7 @@
       <c r="J6" s="6">
         <v>2096188424</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2841,7 +2865,7 @@
       <c r="J7" s="6">
         <v>1950972373</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
@@ -2868,7 +2892,7 @@
       <c r="J8" s="6">
         <v>2422895290</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4">
@@ -2901,7 +2925,7 @@
       <c r="J9" s="6">
         <v>1398962968</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2930,7 +2954,7 @@
       <c r="J10" s="6">
         <v>3077595278</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="17.25" spans="1:11">
       <c r="A11" s="4"/>
@@ -2957,7 +2981,7 @@
       <c r="J11" s="6">
         <v>2567622937</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4">
@@ -2990,7 +3014,7 @@
       <c r="J12" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3019,7 +3043,7 @@
       <c r="J13" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" ht="17.25" spans="1:11">
       <c r="A14" s="4"/>
@@ -3046,7 +3070,7 @@
       <c r="J14" s="6">
         <v>2434897583</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
       <c r="A15" s="4"/>
@@ -3073,7 +3097,7 @@
       <c r="J15" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" ht="17.25" spans="1:11">
       <c r="A16" s="4">
@@ -3106,7 +3130,7 @@
       <c r="J16" s="7">
         <v>1029867213</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3135,7 +3159,7 @@
       <c r="J17" s="7">
         <v>2742395936</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
       <c r="A18" s="4"/>
@@ -3162,7 +3186,7 @@
       <c r="J18" s="7">
         <v>3062546644</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" ht="17.25" spans="1:11">
       <c r="A19" s="4">
@@ -3195,7 +3219,7 @@
       <c r="J19" s="7">
         <v>1596204817</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3224,7 +3248,7 @@
       <c r="J20" s="7">
         <v>1539726678</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" ht="17.25" spans="1:11">
       <c r="A21" s="4"/>
@@ -3251,7 +3275,7 @@
       <c r="J21" s="7">
         <v>3127778480</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
       <c r="A22" s="4">
@@ -3284,7 +3308,7 @@
       <c r="J22" s="7">
         <v>3223197434</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3313,7 +3337,7 @@
       <c r="J23" s="7">
         <v>1414256899</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" ht="17.25" spans="1:11">
       <c r="A24" s="4"/>
@@ -3340,7 +3364,7 @@
       <c r="J24" s="7">
         <v>2974992982</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" ht="17.25" spans="1:11">
       <c r="A25" s="4">
@@ -3373,7 +3397,7 @@
       <c r="J25" s="6">
         <v>1903157075</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3402,7 +3426,7 @@
       <c r="J26" s="6">
         <v>1259799962</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
       <c r="A27" s="4"/>
@@ -3429,7 +3453,7 @@
       <c r="J27" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" ht="17.25" spans="1:11">
       <c r="A28" s="4">
@@ -3462,7 +3486,7 @@
       <c r="J28" s="7">
         <v>1837805961</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3491,7 +3515,7 @@
       <c r="J29" s="7">
         <v>2605267766</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" ht="17.25" spans="1:11">
       <c r="A30" s="4"/>
@@ -3518,7 +3542,7 @@
       <c r="J30" s="7">
         <v>1836519363</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" ht="17.25" spans="1:11">
       <c r="A31" s="4">
@@ -3551,7 +3575,7 @@
       <c r="J31" s="7">
         <v>1925546580</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3580,7 +3604,7 @@
       <c r="J32" s="7">
         <v>1213458011</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" ht="17.25" spans="1:11">
       <c r="A33" s="4"/>
@@ -3607,7 +3631,7 @@
       <c r="J33" s="7">
         <v>2575900990</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" ht="17.25" spans="1:11">
       <c r="A34" s="4">
@@ -3640,7 +3664,7 @@
       <c r="J34" s="7">
         <v>3065264766</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3669,7 +3693,7 @@
       <c r="J35" s="7">
         <v>2758398685</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" ht="17.25" spans="1:11">
       <c r="A36" s="4"/>
@@ -3696,7 +3720,7 @@
       <c r="J36" s="7">
         <v>863644738</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" ht="17.25" spans="1:11">
       <c r="A37" s="4">
@@ -3729,7 +3753,7 @@
       <c r="J37" s="7">
         <v>861146418</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3758,7 +3782,7 @@
       <c r="J38" s="7">
         <v>2904835056</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" ht="17.25" spans="1:11">
       <c r="A39" s="4">
@@ -3791,7 +3815,7 @@
       <c r="J39" s="7">
         <v>2764009269</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3820,7 +3844,7 @@
       <c r="J40" s="7">
         <v>2110656077</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" ht="17.25" spans="1:11">
       <c r="A41" s="4"/>
@@ -3847,7 +3871,7 @@
       <c r="J41" s="7">
         <v>2833295830</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" ht="17.25" spans="1:11">
       <c r="A42" s="4">
@@ -3871,16 +3895,16 @@
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="32" t="s">
         <v>140</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3900,16 +3924,16 @@
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="32" t="s">
         <v>144</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" ht="17.25" spans="1:11">
       <c r="A44" s="4"/>
@@ -3927,16 +3951,16 @@
       <c r="G44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:11">
       <c r="A45" s="4">
@@ -3969,7 +3993,7 @@
       <c r="J45" s="7">
         <v>3312372932</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3998,7 +4022,7 @@
       <c r="J46" s="7">
         <v>2601480216</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" ht="17.25" spans="1:11">
       <c r="A47" s="4"/>
@@ -4025,7 +4049,7 @@
       <c r="J47" s="7">
         <v>2927757541</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" ht="17.25" spans="1:11">
       <c r="A48" s="4">
@@ -4058,7 +4082,7 @@
       <c r="J48" s="7">
         <v>2767475413</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4087,7 +4111,7 @@
       <c r="J49" s="7">
         <v>2922283593</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50" ht="17.25" spans="1:11">
       <c r="A50" s="4"/>
@@ -4114,7 +4138,7 @@
       <c r="J50" s="7">
         <v>3125687361</v>
       </c>
-      <c r="K50" s="17"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" ht="17.25" spans="1:11">
       <c r="A51" s="4">
@@ -4147,7 +4171,7 @@
       <c r="J51" s="7">
         <v>3070167413</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4176,7 +4200,7 @@
       <c r="J52" s="7">
         <v>2902413207</v>
       </c>
-      <c r="K52" s="17"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" ht="17.25" spans="1:11">
       <c r="A53" s="4"/>
@@ -4203,7 +4227,7 @@
       <c r="J53" s="7">
         <v>1604088171</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54" ht="17.25" spans="1:11">
       <c r="A54" s="4">
@@ -4236,7 +4260,7 @@
       <c r="J54" s="7">
         <v>1063545144</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4265,7 +4289,7 @@
       <c r="J55" s="7">
         <v>3529859105</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="16"/>
     </row>
     <row r="56" ht="17.25" spans="1:11">
       <c r="A56" s="4"/>
@@ -4292,7 +4316,7 @@
       <c r="J56" s="7">
         <v>2141735055</v>
       </c>
-      <c r="K56" s="18"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" ht="17.25" spans="1:11">
       <c r="A57" s="4">
@@ -4325,7 +4349,7 @@
       <c r="J57" s="7">
         <v>3205223928</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4354,7 +4378,7 @@
       <c r="J58" s="7">
         <v>2157646685</v>
       </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" ht="17.25" spans="1:11">
       <c r="A59" s="4"/>
@@ -4381,7 +4405,7 @@
       <c r="J59" s="7">
         <v>2215376397</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" ht="17.25" spans="1:11">
       <c r="A60" s="10">
@@ -4414,7 +4438,7 @@
       <c r="J60" s="7">
         <v>1469444875</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4434,7 +4458,7 @@
       <c r="G61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="32" t="s">
         <v>208</v>
       </c>
       <c r="I61" s="6" t="s">
@@ -4443,7 +4467,7 @@
       <c r="J61" s="7">
         <v>2763142268</v>
       </c>
-      <c r="K61" s="20"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" ht="17.25" spans="1:11">
       <c r="A62" s="4"/>
@@ -4470,10 +4494,72 @@
       <c r="J62" s="7">
         <v>2856427359</v>
       </c>
-      <c r="K62" s="20"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" ht="17.25" spans="1:11">
+      <c r="A63" s="13">
+        <v>21</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="7">
+        <v>18976534806</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2106777958</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" spans="1:11">
+      <c r="A64" s="13"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="7">
+        <v>15348851215</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3057543683</v>
+      </c>
+      <c r="K64" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="64">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
@@ -4495,6 +4581,7 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -4515,6 +4602,7 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
@@ -4535,6 +4623,7 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="2200951186@qq.com"/>

--- a/02招新及校赛/校赛报名汇总表.xlsx
+++ b/02招新及校赛/校赛报名汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13680"/>
+    <workbookView windowWidth="28800" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="队伍数" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="223">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -496,12 +496,15 @@
   </si>
   <si>
     <r>
+      <t>2023</t>
+    </r>
+    <r>
       <rPr>
         <sz val="13"/>
-        <rFont val="Calibri"/>
+        <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>2023物电类四班</t>
+      <t>物电类四班</t>
     </r>
   </si>
   <si>
@@ -546,12 +549,15 @@
   </si>
   <si>
     <r>
+      <t>2023</t>
+    </r>
+    <r>
       <rPr>
         <sz val="13"/>
-        <rFont val="Calibri"/>
+        <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>2023物理一班</t>
+      <t>物理一班</t>
     </r>
   </si>
   <si>
@@ -739,6 +745,21 @@
     <t>1604088171@qq.com</t>
   </si>
   <si>
+    <t>赵国印</t>
+  </si>
+  <si>
+    <t>22届自动化2班</t>
+  </si>
+  <si>
+    <t>3182811175@qq.com</t>
+  </si>
+  <si>
+    <t>余锦文</t>
+  </si>
+  <si>
+    <t>abc190009n31@163.com</t>
+  </si>
+  <si>
     <t>决对队</t>
   </si>
   <si>
@@ -763,12 +784,31 @@
   </si>
   <si>
     <r>
+      <t>22</t>
+    </r>
+    <r>
       <rPr>
         <sz val="13"/>
-        <rFont val="Calibri"/>
+        <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>22 级自动化 2 班</t>
+      <t>级自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班</t>
     </r>
   </si>
   <si>
@@ -902,12 +942,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,21 +1030,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1014,7 +1039,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,19 +1060,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,22 +1092,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,6 +1128,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1111,16 +1158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,6 +1170,11 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1148,37 +1193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1229,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,43 +1355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,7 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,74 +1377,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1354,6 +1399,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1416,21 +1485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1445,21 +1499,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,15 +1535,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1513,147 +1543,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1663,7 +1732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,18 +1769,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1724,13 +1808,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1744,9 +1825,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2293,7 +2371,7 @@
   <sheetPr/>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2305,332 +2383,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="25">
+      <c r="A3" s="29">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="25">
+      <c r="A4" s="29">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="25">
+      <c r="A5" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="25">
+      <c r="A6" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="25">
+      <c r="A7" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="25">
+      <c r="A8" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="29">
         <v>3</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="25">
+      <c r="A9" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="25">
+      <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="29">
         <v>6</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="29"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="29">
         <v>21</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2644,12 +2722,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2679,7 +2757,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="14"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2706,7 +2784,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2732,7 +2810,7 @@
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2747,7 +2825,7 @@
       <c r="J3" s="6">
         <v>2200951186</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2761,7 +2839,7 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -2776,7 +2854,7 @@
       <c r="J4" s="6">
         <v>3086772347</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
@@ -2788,7 +2866,7 @@
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -2803,7 +2881,7 @@
       <c r="J5" s="6">
         <v>1507066188</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2821,7 +2899,7 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2836,7 +2914,7 @@
       <c r="J6" s="6">
         <v>2096188424</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2850,7 +2928,7 @@
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2865,7 +2943,7 @@
       <c r="J7" s="6">
         <v>1950972373</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
@@ -2877,7 +2955,7 @@
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2892,7 +2970,7 @@
       <c r="J8" s="6">
         <v>2422895290</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4">
@@ -2910,7 +2988,7 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2925,7 +3003,7 @@
       <c r="J9" s="6">
         <v>1398962968</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2939,7 +3017,7 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2954,7 +3032,7 @@
       <c r="J10" s="6">
         <v>3077595278</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" ht="17.25" spans="1:11">
       <c r="A11" s="4"/>
@@ -2966,7 +3044,7 @@
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2981,7 +3059,7 @@
       <c r="J11" s="6">
         <v>2567622937</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4">
@@ -2999,7 +3077,7 @@
       <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3014,7 +3092,7 @@
       <c r="J12" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3028,7 +3106,7 @@
       <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3043,7 +3121,7 @@
       <c r="J13" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" ht="17.25" spans="1:11">
       <c r="A14" s="4"/>
@@ -3055,7 +3133,7 @@
       <c r="E14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3070,7 +3148,7 @@
       <c r="J14" s="6">
         <v>2434897583</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
       <c r="A15" s="4"/>
@@ -3082,7 +3160,7 @@
       <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3097,7 +3175,7 @@
       <c r="J15" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" ht="17.25" spans="1:11">
       <c r="A16" s="4">
@@ -3115,7 +3193,7 @@
       <c r="E16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -3130,7 +3208,7 @@
       <c r="J16" s="7">
         <v>1029867213</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3144,7 +3222,7 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -3159,7 +3237,7 @@
       <c r="J17" s="7">
         <v>2742395936</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
       <c r="A18" s="4"/>
@@ -3171,7 +3249,7 @@
       <c r="E18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -3186,7 +3264,7 @@
       <c r="J18" s="7">
         <v>3062546644</v>
       </c>
-      <c r="K18" s="17"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" ht="17.25" spans="1:11">
       <c r="A19" s="4">
@@ -3204,7 +3282,7 @@
       <c r="E19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -3219,7 +3297,7 @@
       <c r="J19" s="7">
         <v>1596204817</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3233,7 +3311,7 @@
       <c r="E20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -3248,7 +3326,7 @@
       <c r="J20" s="7">
         <v>1539726678</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" ht="17.25" spans="1:11">
       <c r="A21" s="4"/>
@@ -3260,7 +3338,7 @@
       <c r="E21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -3275,7 +3353,7 @@
       <c r="J21" s="7">
         <v>3127778480</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
       <c r="A22" s="4">
@@ -3293,7 +3371,7 @@
       <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -3308,7 +3386,7 @@
       <c r="J22" s="7">
         <v>3223197434</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3322,7 +3400,7 @@
       <c r="E23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -3337,7 +3415,7 @@
       <c r="J23" s="7">
         <v>1414256899</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" ht="17.25" spans="1:11">
       <c r="A24" s="4"/>
@@ -3349,7 +3427,7 @@
       <c r="E24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -3364,7 +3442,7 @@
       <c r="J24" s="7">
         <v>2974992982</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" ht="17.25" spans="1:11">
       <c r="A25" s="4">
@@ -3382,7 +3460,7 @@
       <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3397,7 +3475,7 @@
       <c r="J25" s="6">
         <v>1903157075</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3411,7 +3489,7 @@
       <c r="E26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3426,7 +3504,7 @@
       <c r="J26" s="6">
         <v>1259799962</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
       <c r="A27" s="4"/>
@@ -3438,7 +3516,7 @@
       <c r="E27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3453,7 +3531,7 @@
       <c r="J27" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K27" s="17"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" ht="17.25" spans="1:11">
       <c r="A28" s="4">
@@ -3471,7 +3549,7 @@
       <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G28" s="7" t="s">
@@ -3486,7 +3564,7 @@
       <c r="J28" s="7">
         <v>1837805961</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3500,7 +3578,7 @@
       <c r="E29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -3515,7 +3593,7 @@
       <c r="J29" s="7">
         <v>2605267766</v>
       </c>
-      <c r="K29" s="17"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" ht="17.25" spans="1:11">
       <c r="A30" s="4"/>
@@ -3527,7 +3605,7 @@
       <c r="E30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -3542,7 +3620,7 @@
       <c r="J30" s="7">
         <v>1836519363</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" ht="17.25" spans="1:11">
       <c r="A31" s="4">
@@ -3560,7 +3638,7 @@
       <c r="E31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -3575,7 +3653,7 @@
       <c r="J31" s="7">
         <v>1925546580</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3589,7 +3667,7 @@
       <c r="E32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -3604,7 +3682,7 @@
       <c r="J32" s="7">
         <v>1213458011</v>
       </c>
-      <c r="K32" s="17"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" ht="17.25" spans="1:11">
       <c r="A33" s="4"/>
@@ -3616,7 +3694,7 @@
       <c r="E33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3631,7 +3709,7 @@
       <c r="J33" s="7">
         <v>2575900990</v>
       </c>
-      <c r="K33" s="17"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" ht="17.25" spans="1:11">
       <c r="A34" s="4">
@@ -3649,7 +3727,7 @@
       <c r="E34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -3664,7 +3742,7 @@
       <c r="J34" s="7">
         <v>3065264766</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3678,7 +3756,7 @@
       <c r="E35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -3693,7 +3771,7 @@
       <c r="J35" s="7">
         <v>2758398685</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" ht="17.25" spans="1:11">
       <c r="A36" s="4"/>
@@ -3705,7 +3783,7 @@
       <c r="E36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -3720,7 +3798,7 @@
       <c r="J36" s="7">
         <v>863644738</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" ht="17.25" spans="1:11">
       <c r="A37" s="4">
@@ -3738,7 +3816,7 @@
       <c r="E37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -3753,7 +3831,7 @@
       <c r="J37" s="7">
         <v>861146418</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3767,7 +3845,7 @@
       <c r="E38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -3782,7 +3860,7 @@
       <c r="J38" s="7">
         <v>2904835056</v>
       </c>
-      <c r="K38" s="16"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" ht="17.25" spans="1:11">
       <c r="A39" s="4">
@@ -3800,7 +3878,7 @@
       <c r="E39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="9" t="s">
         <v>130</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -3815,7 +3893,7 @@
       <c r="J39" s="7">
         <v>2764009269</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3829,7 +3907,7 @@
       <c r="E40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -3844,7 +3922,7 @@
       <c r="J40" s="7">
         <v>2110656077</v>
       </c>
-      <c r="K40" s="16"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" ht="17.25" spans="1:11">
       <c r="A41" s="4"/>
@@ -3856,7 +3934,7 @@
       <c r="E41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -3871,7 +3949,7 @@
       <c r="J41" s="7">
         <v>2833295830</v>
       </c>
-      <c r="K41" s="16"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" ht="17.25" spans="1:11">
       <c r="A42" s="4">
@@ -3889,22 +3967,22 @@
       <c r="E42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="9" t="s">
         <v>139</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="35" t="s">
         <v>140</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="J42" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3918,22 +3996,22 @@
       <c r="E43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="9" t="s">
         <v>139</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="35" t="s">
         <v>144</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" ht="17.25" spans="1:11">
       <c r="A44" s="4"/>
@@ -3945,22 +4023,22 @@
       <c r="E44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
         <v>148</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:11">
       <c r="A45" s="4">
@@ -3978,7 +4056,7 @@
       <c r="E45" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>154</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -3993,7 +4071,7 @@
       <c r="J45" s="7">
         <v>3312372932</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4007,7 +4085,7 @@
       <c r="E46" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>159</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -4022,7 +4100,7 @@
       <c r="J46" s="7">
         <v>2601480216</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" ht="17.25" spans="1:11">
       <c r="A47" s="4"/>
@@ -4034,7 +4112,7 @@
       <c r="E47" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>159</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4049,7 +4127,7 @@
       <c r="J47" s="7">
         <v>2927757541</v>
       </c>
-      <c r="K47" s="16"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" ht="17.25" spans="1:11">
       <c r="A48" s="4">
@@ -4082,7 +4160,7 @@
       <c r="J48" s="7">
         <v>2767475413</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4111,7 +4189,7 @@
       <c r="J49" s="7">
         <v>2922283593</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="21"/>
     </row>
     <row r="50" ht="17.25" spans="1:11">
       <c r="A50" s="4"/>
@@ -4138,16 +4216,16 @@
       <c r="J50" s="7">
         <v>3125687361</v>
       </c>
-      <c r="K50" s="18"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" ht="17.25" spans="1:11">
-      <c r="A51" s="4">
+      <c r="A51" s="10">
         <v>17</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="10" t="s">
         <v>175</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -4171,14 +4249,14 @@
       <c r="J51" s="7">
         <v>3070167413</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:11">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="9" t="s">
         <v>180</v>
       </c>
@@ -4200,12 +4278,12 @@
       <c r="J52" s="7">
         <v>2902413207</v>
       </c>
-      <c r="K52" s="18"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" ht="17.25" spans="1:11">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="9" t="s">
         <v>182</v>
       </c>
@@ -4227,336 +4305,390 @@
       <c r="J53" s="7">
         <v>1604088171</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="54" ht="17.25" spans="1:11">
-      <c r="A54" s="4">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="7">
+        <v>18436187870</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J54" s="7">
+        <v>3182811175</v>
+      </c>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" ht="17.25" spans="1:11">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="7">
+        <v>17700956685</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2270032682</v>
+      </c>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" ht="17.25" spans="1:11">
+      <c r="A56" s="4">
         <v>18</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H54" s="8">
-        <v>18099944270</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J54" s="7">
-        <v>1063545144</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8" t="s">
+      <c r="C56" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="8">
-        <v>19846905015</v>
-      </c>
-      <c r="I55" s="6" t="s">
+      <c r="D56" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="7">
-        <v>3529859105</v>
-      </c>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" ht="17.25" spans="1:11">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>187</v>
+      <c r="F56" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>160</v>
       </c>
       <c r="H56" s="8">
-        <v>18285993391</v>
+        <v>18099944270</v>
       </c>
       <c r="I56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1063545144</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="1:11">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J56" s="7">
-        <v>2141735055</v>
-      </c>
-      <c r="K56" s="19"/>
-    </row>
-    <row r="57" ht="17.25" spans="1:11">
-      <c r="A57" s="4">
-        <v>19</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="8">
+        <v>19846905015</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="7">
-        <v>18976848923</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="J57" s="7">
-        <v>3205223928</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>29</v>
-      </c>
+        <v>3529859105</v>
+      </c>
+      <c r="K57" s="21"/>
     </row>
     <row r="58" ht="17.25" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="8">
+        <v>18285993391</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="J58" s="7">
+        <v>2141735055</v>
+      </c>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" ht="17.25" spans="1:11">
+      <c r="A59" s="4">
+        <v>19</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="7">
-        <v>13909934072</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J58" s="7">
-        <v>2157646685</v>
-      </c>
-      <c r="K58" s="16"/>
-    </row>
-    <row r="59" ht="17.25" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7" t="s">
+      <c r="F59" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="7">
+        <v>18976848923</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J59" s="7">
+        <v>3205223928</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:11">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J59" s="7">
-        <v>2215376397</v>
-      </c>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" ht="17.25" spans="1:11">
-      <c r="A60" s="10">
-        <v>20</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>124</v>
+      <c r="F60" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H60" s="7">
-        <v>17373701992</v>
+        <v>13909934072</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J60" s="7">
-        <v>1469444875</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>29</v>
-      </c>
+        <v>2157646685</v>
+      </c>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" ht="17.25" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="J61" s="7">
+        <v>2215376397</v>
+      </c>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" ht="17.25" spans="1:11">
+      <c r="A62" s="16">
+        <v>20</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="7">
-        <v>2763142268</v>
-      </c>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" ht="17.25" spans="1:11">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="4"/>
       <c r="D62" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H62" s="7">
-        <v>15865767711</v>
+        <v>17373701992</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J62" s="7">
-        <v>2856427359</v>
-      </c>
-      <c r="K62" s="21"/>
+        <v>1469444875</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="63" ht="17.25" spans="1:11">
-      <c r="A63" s="13">
-        <v>21</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>214</v>
+      <c r="F63" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="7">
-        <v>18976534806</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="H63" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2763142268</v>
+      </c>
+      <c r="K63" s="26"/>
+    </row>
+    <row r="64" ht="17.25" spans="1:11">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="J63" s="7">
-        <v>2106777958</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" ht="17.25" spans="1:11">
-      <c r="A64" s="13"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>214</v>
+      <c r="F64" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H64" s="7">
+        <v>15865767711</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J64" s="7">
+        <v>2856427359</v>
+      </c>
+      <c r="K64" s="26"/>
+    </row>
+    <row r="65" ht="17.25" spans="1:11">
+      <c r="A65" s="4">
+        <v>21</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="7">
+        <v>18976534806</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2106777958</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" spans="1:11">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="7">
         <v>15348851215</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J64" s="7">
+      <c r="I66" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J66" s="7">
         <v>3057543683</v>
       </c>
-      <c r="K64" s="22"/>
+      <c r="K66" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -4577,11 +4709,11 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -4598,11 +4730,11 @@
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
@@ -4619,11 +4751,11 @@
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="2200951186@qq.com"/>
@@ -4671,10 +4803,11 @@
     <hyperlink ref="J51" r:id="rId42" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
     <hyperlink ref="I52" r:id="rId43" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
     <hyperlink ref="I53" r:id="rId44" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
-    <hyperlink ref="I57" r:id="rId45" display="3205223928@qq.com"/>
-    <hyperlink ref="I60" r:id="rId46" display="1469444875@qq.com"/>
-    <hyperlink ref="I61" r:id="rId47" display="2763142268@qq.com"/>
-    <hyperlink ref="I62" r:id="rId48" display="2856427359@qq.com"/>
+    <hyperlink ref="I59" r:id="rId45" display="3205223928@qq.com"/>
+    <hyperlink ref="I62" r:id="rId46" display="1469444875@qq.com"/>
+    <hyperlink ref="I63" r:id="rId47" display="2763142268@qq.com"/>
+    <hyperlink ref="I64" r:id="rId48" display="2856427359@qq.com"/>
+    <hyperlink ref="I54" r:id="rId49" display="3182811175@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
